--- a/gsc-export/heatlabs.net-Https.xlsx
+++ b/gsc-export/heatlabs.net-Https.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>2025-11-01</t>
+  </si>
+  <si>
+    <t>2025-11-02</t>
   </si>
   <si>
     <t>Issue</t>
@@ -158,7 +161,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -459,6 +462,17 @@
       </c>
       <c r="C27" t="n" s="0">
         <v>102.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B28" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C28" t="n" s="0">
+        <v>113.0</v>
       </c>
     </row>
   </sheetData>
@@ -476,13 +490,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/heatlabs.net-Https.xlsx
+++ b/gsc-export/heatlabs.net-Https.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Date</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>2025-11-02</t>
+  </si>
+  <si>
+    <t>2025-11-03</t>
   </si>
   <si>
     <t>Issue</t>
@@ -161,7 +164,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -473,6 +476,17 @@
       </c>
       <c r="C28" t="n" s="0">
         <v>113.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B29" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C29" t="n" s="0">
+        <v>115.0</v>
       </c>
     </row>
   </sheetData>
@@ -490,13 +504,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/heatlabs.net-Https.xlsx
+++ b/gsc-export/heatlabs.net-Https.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Date</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>2025-11-03</t>
+  </si>
+  <si>
+    <t>2025-11-04</t>
   </si>
   <si>
     <t>Issue</t>
@@ -164,7 +167,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -487,6 +490,17 @@
       </c>
       <c r="C29" t="n" s="0">
         <v>115.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B30" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C30" t="n" s="0">
+        <v>107.0</v>
       </c>
     </row>
   </sheetData>
@@ -504,13 +518,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/heatlabs.net-Https.xlsx
+++ b/gsc-export/heatlabs.net-Https.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Date</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>2025-11-04</t>
+  </si>
+  <si>
+    <t>2025-11-05</t>
   </si>
   <si>
     <t>Issue</t>
@@ -167,7 +170,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -501,6 +504,17 @@
       </c>
       <c r="C30" t="n" s="0">
         <v>107.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B31" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C31" t="n" s="0">
+        <v>105.0</v>
       </c>
     </row>
   </sheetData>
@@ -518,13 +532,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/heatlabs.net-Https.xlsx
+++ b/gsc-export/heatlabs.net-Https.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Date</t>
   </si>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>2025-11-05</t>
+  </si>
+  <si>
+    <t>2025-11-06</t>
+  </si>
+  <si>
+    <t>2025-11-07</t>
   </si>
   <si>
     <t>Issue</t>
@@ -170,7 +176,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -515,6 +521,28 @@
       </c>
       <c r="C31" t="n" s="0">
         <v>105.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B32" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C32" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B33" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C33" t="n" s="0">
+        <v>94.0</v>
       </c>
     </row>
   </sheetData>
@@ -532,13 +560,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
